--- a/assets/normalisasi.xlsx
+++ b/assets/normalisasi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Python\trisna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Python\trisna\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B0C5C7-8C5F-4839-8651-4110F7C3ADFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246AF950-AB5E-4874-B2B3-66679FD3E12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{19A0A829-E4E6-4B40-B64D-12C4411D540A}"/>
+    <workbookView xWindow="28680" yWindow="7815" windowWidth="29040" windowHeight="15720" xr2:uid="{19A0A829-E4E6-4B40-B64D-12C4411D540A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4496" uniqueCount="3265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4576" uniqueCount="3313">
   <si>
     <t>kakak</t>
   </si>
@@ -9820,6 +9829,150 @@
   </si>
   <si>
     <t>aduh</t>
+  </si>
+  <si>
+    <t>utk</t>
+  </si>
+  <si>
+    <t>konten-kontenya</t>
+  </si>
+  <si>
+    <t>kontennya</t>
+  </si>
+  <si>
+    <t>tuju</t>
+  </si>
+  <si>
+    <t>contohin</t>
+  </si>
+  <si>
+    <t>lamanya</t>
+  </si>
+  <si>
+    <t>lama</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>sekolah</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>tuuh</t>
+  </si>
+  <si>
+    <t>tuh</t>
+  </si>
+  <si>
+    <t>voteeee</t>
+  </si>
+  <si>
+    <t>vote</t>
+  </si>
+  <si>
+    <t>liburrrrrrr</t>
+  </si>
+  <si>
+    <t>libur</t>
+  </si>
+  <si>
+    <t>sklh</t>
+  </si>
+  <si>
+    <t>kalo</t>
+  </si>
+  <si>
+    <t>wefi</t>
+  </si>
+  <si>
+    <t>wifi</t>
+  </si>
+  <si>
+    <t>baguss</t>
+  </si>
+  <si>
+    <t>bagus</t>
+  </si>
+  <si>
+    <t>blh</t>
+  </si>
+  <si>
+    <t>sdh</t>
+  </si>
+  <si>
+    <t>temenya</t>
+  </si>
+  <si>
+    <t>sekolahbya</t>
+  </si>
+  <si>
+    <t>lamalama</t>
+  </si>
+  <si>
+    <t>dayy</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>situ</t>
+  </si>
+  <si>
+    <t>ane</t>
+  </si>
+  <si>
+    <t>gaaaa</t>
+  </si>
+  <si>
+    <t>pleaseeeeeee</t>
+  </si>
+  <si>
+    <t>tidakkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>tidaaaaaaaaaaaaaaak</t>
+  </si>
+  <si>
+    <t>setujuuuu</t>
+  </si>
+  <si>
+    <t>tidakkkk</t>
+  </si>
+  <si>
+    <t>gkk</t>
+  </si>
+  <si>
+    <t>luluss</t>
+  </si>
+  <si>
+    <t>lulus</t>
+  </si>
+  <si>
+    <t>pesantrenn</t>
+  </si>
+  <si>
+    <t>pesantren</t>
+  </si>
+  <si>
+    <t>vang</t>
+  </si>
+  <si>
+    <t>tidaaaaaaakkkk</t>
+  </si>
+  <si>
+    <t>tidakkkkk</t>
+  </si>
+  <si>
+    <t>bisasih </t>
+  </si>
+  <si>
+    <t>aja </t>
+  </si>
+  <si>
+    <t>kalaw </t>
   </si>
 </sst>
 </file>
@@ -10202,10 +10355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C488C24B-421F-4003-987F-43F6A775AD40}">
-  <dimension ref="A1:B2248"/>
+  <dimension ref="A1:B2288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2224" workbookViewId="0">
-      <selection activeCell="B2248" sqref="B2248"/>
+    <sheetView tabSelected="1" topLeftCell="A2262" workbookViewId="0">
+      <selection activeCell="H2271" sqref="H2271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28173,28 +28326,348 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="2246" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2246" s="2" t="s">
+    <row r="2246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2246" t="s">
         <v>3261</v>
       </c>
       <c r="B2246" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2247" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2247" s="2" t="s">
+    <row r="2247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2247" t="s">
         <v>3262</v>
       </c>
       <c r="B2247" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="2248" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2248" s="2" t="s">
+    <row r="2248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2248" t="s">
         <v>3263</v>
       </c>
       <c r="B2248" t="s">
         <v>3264</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2249" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B2249" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2250" t="s">
+        <v>3266</v>
+      </c>
+      <c r="B2250" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2251" s="2" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B2251" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2252" t="s">
+        <v>3268</v>
+      </c>
+      <c r="B2252" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2253" s="2" t="s">
+        <v>3269</v>
+      </c>
+      <c r="B2253" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2254" s="2" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B2254" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2255" s="2" t="s">
+        <v>3272</v>
+      </c>
+      <c r="B2255" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2256" s="2" t="s">
+        <v>3274</v>
+      </c>
+      <c r="B2256" t="s">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2257" s="2" t="s">
+        <v>3275</v>
+      </c>
+      <c r="B2257" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2258" s="2" t="s">
+        <v>3276</v>
+      </c>
+      <c r="B2258" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2259" s="2" t="s">
+        <v>3277</v>
+      </c>
+      <c r="B2259" t="s">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2260" t="s">
+        <v>3279</v>
+      </c>
+      <c r="B2260" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2261" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B2261" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2262" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B2262" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2263" t="s">
+        <v>3283</v>
+      </c>
+      <c r="B2263" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2264" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B2264" t="s">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2265" t="s">
+        <v>3287</v>
+      </c>
+      <c r="B2265" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2266" t="s">
+        <v>3288</v>
+      </c>
+      <c r="B2266" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2267" t="s">
+        <v>3289</v>
+      </c>
+      <c r="B2267" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2268" t="s">
+        <v>3290</v>
+      </c>
+      <c r="B2268" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2269" t="s">
+        <v>3291</v>
+      </c>
+      <c r="B2269" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2270" t="s">
+        <v>3292</v>
+      </c>
+      <c r="B2270" t="s">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2271" t="s">
+        <v>3294</v>
+      </c>
+      <c r="B2271" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2272" t="s">
+        <v>3295</v>
+      </c>
+      <c r="B2272" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2273" t="s">
+        <v>3296</v>
+      </c>
+      <c r="B2273" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2274" t="s">
+        <v>3297</v>
+      </c>
+      <c r="B2274" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2275" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B2275" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2276" t="s">
+        <v>3298</v>
+      </c>
+      <c r="B2276" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2277" t="s">
+        <v>3299</v>
+      </c>
+      <c r="B2277" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2278" t="s">
+        <v>3300</v>
+      </c>
+      <c r="B2278" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2279" t="s">
+        <v>3301</v>
+      </c>
+      <c r="B2279" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2280" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B2280" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2281" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B2281" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2282" t="s">
+        <v>3305</v>
+      </c>
+      <c r="B2282" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2283" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B2283" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2284" t="s">
+        <v>3308</v>
+      </c>
+      <c r="B2284" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2285" t="s">
+        <v>3309</v>
+      </c>
+      <c r="B2285" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2286" s="2" t="s">
+        <v>3310</v>
+      </c>
+      <c r="B2286" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2287" s="2" t="s">
+        <v>3311</v>
+      </c>
+      <c r="B2287" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2288" s="2" t="s">
+        <v>3312</v>
+      </c>
+      <c r="B2288" t="s">
+        <v>819</v>
       </c>
     </row>
   </sheetData>
